--- a/Data/Base de preguntas.xlsx
+++ b/Data/Base de preguntas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Desktop\ai_chatbot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6924A25-53E6-4C15-ADDA-CDC7A3D74C3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5E3A09-60DB-4787-AA41-FFA5090F1490}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{93629926-1A37-4A88-8D48-300759AA795C}"/>
   </bookViews>
@@ -1096,7 +1096,7 @@
   <dimension ref="A1:M284"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:F176"/>
+      <selection activeCell="D2" sqref="D2:D176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1155,7 +1155,7 @@
         <v>126</v>
       </c>
       <c r="L2">
-        <f>COUNTIF($D$2:$D$1021,K2)</f>
+        <f t="shared" ref="L2:L13" si="0">COUNTIF($D$2:$D$1021,K2)</f>
         <v>6</v>
       </c>
       <c r="M2" t="s">
@@ -1185,7 +1185,7 @@
         <v>44</v>
       </c>
       <c r="L3">
-        <f>COUNTIF($D$2:$D$1021,K3)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="M3" t="s">
@@ -1215,7 +1215,7 @@
         <v>149</v>
       </c>
       <c r="L4">
-        <f>COUNTIF($D$2:$D$1021,K4)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="M4" t="s">
@@ -1245,7 +1245,7 @@
         <v>160</v>
       </c>
       <c r="L5">
-        <f>COUNTIF($D$2:$D$1021,K5)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
         <v>93</v>
       </c>
       <c r="L6">
-        <f>COUNTIF($D$2:$D$1021,K6)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="M6" t="s">
@@ -1302,7 +1302,7 @@
         <v>21</v>
       </c>
       <c r="L7">
-        <f>COUNTIF($D$2:$D$1021,K7)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="M7" t="s">
@@ -1332,7 +1332,7 @@
         <v>43</v>
       </c>
       <c r="L8">
-        <f>COUNTIF($D$2:$D$1021,K8)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M8" t="s">
@@ -1365,7 +1365,7 @@
         <v>46</v>
       </c>
       <c r="L9">
-        <f>COUNTIF($D$2:$D$1021,K9)</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="M9" t="s">
@@ -1396,7 +1396,7 @@
         <v>200</v>
       </c>
       <c r="L10">
-        <f>COUNTIF($D$2:$D$1021,K10)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="M10" t="s">
@@ -1429,7 +1429,7 @@
         <v>47</v>
       </c>
       <c r="L11">
-        <f>COUNTIF($D$2:$D$1021,K11)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="M11" t="s">
@@ -1460,7 +1460,7 @@
         <v>153</v>
       </c>
       <c r="L12">
-        <f>COUNTIF($D$2:$D$1021,K12)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="M12" t="s">
@@ -1493,7 +1493,7 @@
         <v>156</v>
       </c>
       <c r="L13" s="9">
-        <f>COUNTIF($D$2:$D$1021,K13)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="M13" t="s">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="E35" t="s">
         <v>24</v>
@@ -3355,7 +3355,7 @@
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="E120" t="s">
         <v>24</v>
@@ -4816,7 +4816,7 @@
   <dimension ref="A1:E176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E176"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5335,7 +5335,7 @@
         <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D35" t="s">
         <v>24</v>
@@ -6444,7 +6444,7 @@
         <v>140</v>
       </c>
       <c r="C120" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D120" t="s">
         <v>24</v>
